--- a/iUL959_GSMM-addinfo.xlsx
+++ b/iUL959_GSMM-addinfo.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
   </bookViews>
   <sheets>
-    <sheet name="GPRs as sole catalyst" sheetId="1" r:id="rId1"/>
-    <sheet name="Deleted reactions" sheetId="3" r:id="rId2"/>
-    <sheet name="missing Homologs from iMT1026" sheetId="2" r:id="rId3"/>
-    <sheet name="New Reactions" sheetId="4" r:id="rId4"/>
-    <sheet name="New Genes" sheetId="6" r:id="rId5"/>
-    <sheet name="Literature_Chemostat" sheetId="7" r:id="rId6"/>
+    <sheet name="Reactions with single GPR" sheetId="1" r:id="rId1"/>
+    <sheet name="missing Homologs from iMT1026" sheetId="2" r:id="rId2"/>
+    <sheet name="New Reactions" sheetId="4" r:id="rId3"/>
+    <sheet name="New Genes" sheetId="6" r:id="rId4"/>
+    <sheet name="Literature_Chemostat" sheetId="7" r:id="rId5"/>
+    <sheet name="FSEOF" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="792">
   <si>
     <t>PAS_chr4_0008</t>
   </si>
@@ -742,36 +742,6 @@
     <t>UniProt ID</t>
   </si>
   <si>
-    <t>4HTHBDH</t>
-  </si>
-  <si>
-    <t>CYSTH2SS</t>
-  </si>
-  <si>
-    <t>CYSTGL</t>
-  </si>
-  <si>
-    <t>CYSTS</t>
-  </si>
-  <si>
-    <t>ASNNe</t>
-  </si>
-  <si>
-    <t>HXAND</t>
-  </si>
-  <si>
-    <t>XAND</t>
-  </si>
-  <si>
-    <t>XAO2</t>
-  </si>
-  <si>
-    <t>NODOx</t>
-  </si>
-  <si>
-    <t>Reaction ID</t>
-  </si>
-  <si>
     <t>Gene ID</t>
   </si>
   <si>
@@ -787,45 +757,12 @@
     <t>Asparagine Metabolism</t>
   </si>
   <si>
-    <t>hypoxanthine dehydrogenase</t>
-  </si>
-  <si>
-    <t>L-asparaginase, extracellular</t>
-  </si>
-  <si>
-    <t>cystathionine beta-synthase</t>
-  </si>
-  <si>
-    <t>cystathionine g-lyase</t>
-  </si>
-  <si>
-    <t>L-serine hydro-lyase (adding hydrogen sulfide, L-cysteine-forming)</t>
-  </si>
-  <si>
     <t>Nucleotide Metabolism</t>
   </si>
   <si>
-    <t>xanthine dehydrogenase</t>
-  </si>
-  <si>
-    <t>Hypoxanthine:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>nitric oxide dioxygenase</t>
-  </si>
-  <si>
-    <t>4a-hydroxytetrahydrobiopterin hydro-lyase</t>
-  </si>
-  <si>
     <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
   </si>
   <si>
-    <t>Reaction name</t>
-  </si>
-  <si>
-    <t>Gene Function</t>
-  </si>
-  <si>
     <t>Metabolic pathway</t>
   </si>
   <si>
@@ -2345,12 +2282,138 @@
   </si>
   <si>
     <t>growth rate (/h)</t>
+  </si>
+  <si>
+    <t>Lactate</t>
+  </si>
+  <si>
+    <t>'Glucokinase'</t>
+  </si>
+  <si>
+    <t>'HCO3 equilibration reaction'</t>
+  </si>
+  <si>
+    <t>'succinate transport via proton symport'</t>
+  </si>
+  <si>
+    <t>'Glucose-6-phosphate isomerase'</t>
+  </si>
+  <si>
+    <t>'malate/succinate mitochondrial shuttle'</t>
+  </si>
+  <si>
+    <t>'enolase'</t>
+  </si>
+  <si>
+    <t>'fructose-bisphosphate aldolase'</t>
+  </si>
+  <si>
+    <t>'glyceraldehyde-3-phosphate dehydrogenase'</t>
+  </si>
+  <si>
+    <t>'malate dehydrogenase'</t>
+  </si>
+  <si>
+    <t>'pyruvate carboxylase'</t>
+  </si>
+  <si>
+    <t>'phosphofructokinase'</t>
+  </si>
+  <si>
+    <t>'phosphoglycerate kinase'</t>
+  </si>
+  <si>
+    <t>'phosphoglycerate mutase'</t>
+  </si>
+  <si>
+    <t>'pyruvate kinase'</t>
+  </si>
+  <si>
+    <t>'triose-phosphate isomerase'</t>
+  </si>
+  <si>
+    <t>'H+ diffusion'</t>
+  </si>
+  <si>
+    <t>'H+ exchange'</t>
+  </si>
+  <si>
+    <t>'Succinate exchange'</t>
+  </si>
+  <si>
+    <t>'methylglyoxal synthase'</t>
+  </si>
+  <si>
+    <t>'(R)-Lactate permease'</t>
+  </si>
+  <si>
+    <t>'lactoylglutathione lyase'</t>
+  </si>
+  <si>
+    <t>'hydroxyacylglutathione hydrolase'</t>
+  </si>
+  <si>
+    <t>'D-Lactate exchange'</t>
+  </si>
+  <si>
+    <t>'oxoglutarate dehydrogenase (lipoamide)'</t>
+  </si>
+  <si>
+    <t>'succinate dehydrogenase (ubiquinone-6), mitochondrial'</t>
+  </si>
+  <si>
+    <t>'oxoglutarate dehydrogenase (dihydrolipoamide S-succinyltransferase)'</t>
+  </si>
+  <si>
+    <t>'fumarase, mitochondrial'</t>
+  </si>
+  <si>
+    <t>'glycerol-3-phosphate dehydrogenase (NAD)'</t>
+  </si>
+  <si>
+    <t>'glycerol-3-phosphatase'</t>
+  </si>
+  <si>
+    <t>'glycerol transport via channel'</t>
+  </si>
+  <si>
+    <t>'Succinate--CoA ligase (ADP-forming)'</t>
+  </si>
+  <si>
+    <t>'Glycerol exchange'</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>Overall list of P. pastoris genes for which no homologs were detected in O. Polymorpha</t>
+  </si>
+  <si>
+    <t>Newly added reactions based on Biolog phenotype assays.</t>
+  </si>
+  <si>
+    <t>New genes added based on added reactions.</t>
+  </si>
+  <si>
+    <t>Results for FSEOF according to Choi et al., 2010</t>
+  </si>
+  <si>
+    <t>This table lists reactions with only one associated GPR and for which no homolog could be identified in O. polymorpha. Some reactions were still retained in the model when their removal would lead to gap reactions, if not they were removed.</t>
+  </si>
+  <si>
+    <t>Reactions retained</t>
+  </si>
+  <si>
+    <t>Reactions deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2412,7 +2475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2442,6 +2505,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2723,7 +2792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2735,233 +2804,392 @@
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
         <v>236</v>
       </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>SUM(E2:E13)</f>
+      <c r="G14">
+        <f>SUM(F3:F14)</f>
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>791</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D13">
-    <sortCondition ref="A2:A13"/>
+  <sortState ref="B2:E13">
+    <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2969,226 +3197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:H10">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3200,952 +3209,959 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
         <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
         <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
       </c>
       <c r="C84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
     <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4156,100 +4172,75 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6">
-        <v>-1000</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J33" si="0">IF(E2=-1000,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="6">
         <v>-1000</v>
       </c>
       <c r="F3" s="6">
         <v>1000</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J34" si="0">IF(E3=-1000,1,0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
@@ -4258,27 +4249,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>569</v>
+        <v>359</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F4" s="6">
         <v>1000</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>572</v>
+        <v>358</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4286,13 +4279,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6">
@@ -4302,7 +4295,7 @@
         <v>1000</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
@@ -4314,25 +4307,27 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>1000</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4340,29 +4335,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>267</v>
+        <v>545</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F7" s="6">
         <v>1000</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4370,16 +4361,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -4388,7 +4379,7 @@
         <v>1000</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
@@ -4400,25 +4391,29 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E9" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>1000</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4426,29 +4421,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>374</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>375</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4456,27 +4447,29 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>545</v>
+        <v>351</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="E11" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>547</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4484,53 +4477,55 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F12" s="6">
         <v>1000</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>543</v>
+      <c r="I12" s="13" t="s">
+        <v>526</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>1000</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4538,13 +4533,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="6">
@@ -4553,9 +4548,7 @@
       <c r="F14" s="6">
         <v>1000</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>551</v>
-      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4566,17 +4559,15 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>277</v>
+        <v>527</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>280</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="6">
         <v>-1000</v>
       </c>
@@ -4584,34 +4575,38 @@
         <v>1000</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="E16" s="6">
         <v>-1000</v>
       </c>
       <c r="F16" s="6">
         <v>1000</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="J16" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4622,13 +4617,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>284</v>
+        <v>364</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="6">
@@ -4637,9 +4632,7 @@
       <c r="F17" s="6">
         <v>1000</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4650,29 +4643,27 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="6">
         <v>1000</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4680,29 +4671,29 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>461</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>463</v>
+        <v>266</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="E19" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
         <v>1000</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -4710,16 +4701,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E20" s="6">
         <v>-1000</v>
@@ -4728,7 +4719,7 @@
         <v>1000</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="0"/>
@@ -4740,16 +4731,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E21" s="6">
         <v>-1000</v>
@@ -4758,7 +4749,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="0"/>
@@ -4770,16 +4761,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E22" s="6">
         <v>-1000</v>
@@ -4788,7 +4779,7 @@
         <v>1000</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="0"/>
@@ -4799,88 +4790,88 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>423</v>
+      <c r="A23" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>424</v>
+        <v>1000</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="E24" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>651</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>291</v>
+        <v>627</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>294</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F25" s="6">
         <v>1000</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>295</v>
+        <v>630</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -4888,27 +4879,29 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>555</v>
+        <v>270</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="E26" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
         <v>1000</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>558</v>
+        <v>274</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -4916,13 +4909,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="6">
@@ -4931,7 +4924,9 @@
       <c r="F27" s="6">
         <v>1000</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="J27" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4942,13 +4937,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>414</v>
+        <v>531</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>415</v>
+        <v>532</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>416</v>
+        <v>533</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="6">
@@ -4968,13 +4963,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="6">
@@ -4994,111 +4989,109 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>299</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F30" s="6">
         <v>1000</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="E31" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>1000</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D32" s="4"/>
+      <c r="A32" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="6">
         <v>1000</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>616</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
         <v>1000</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -5106,13 +5099,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="6">
@@ -5122,10 +5115,10 @@
         <v>1000</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" ref="J34:J65" si="1">IF(E34=-1000,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K34" s="4"/>
@@ -5134,27 +5127,27 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>589</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F35" s="6">
         <v>1000</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>620</v>
+      <c r="I35" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J35:J66" si="1">IF(E35=-1000,1,0)</f>
+        <v>1</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5162,23 +5155,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>597</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D36" s="14"/>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="6">
         <v>1000</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>604</v>
+      <c r="I36" s="14" t="s">
+        <v>599</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="1"/>
@@ -5190,22 +5183,24 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="J37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5216,13 +5211,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>342</v>
+        <v>473</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>344</v>
+        <v>474</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="6">
@@ -5242,13 +5237,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>636</v>
+        <v>321</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>638</v>
+        <v>322</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="6">
@@ -5268,13 +5263,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>330</v>
+        <v>615</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>332</v>
+        <v>616</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6">
@@ -5294,13 +5289,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>627</v>
+        <v>309</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>629</v>
+        <v>310</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="6">
@@ -5320,13 +5315,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>387</v>
+        <v>606</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>388</v>
+        <v>607</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>389</v>
+        <v>608</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6">
@@ -5346,13 +5341,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>630</v>
+        <v>366</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>631</v>
+        <v>367</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>632</v>
+        <v>368</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="6">
@@ -5372,13 +5367,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>417</v>
+        <v>609</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>418</v>
+        <v>610</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>419</v>
+        <v>611</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="6">
@@ -5398,13 +5393,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6">
@@ -5423,23 +5418,23 @@
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
       </c>
-      <c r="I46" s="6"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5449,23 +5444,23 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="D47" s="4"/>
+      <c r="A47" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5476,13 +5471,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>348</v>
+        <v>618</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>350</v>
+        <v>619</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="6">
@@ -5502,13 +5497,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>642</v>
+        <v>327</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>644</v>
+        <v>328</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6">
@@ -5527,14 +5522,14 @@
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>665</v>
+      <c r="A50" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>666</v>
+        <v>623</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="6">
@@ -5543,24 +5538,24 @@
       <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>465</v>
+      <c r="A51" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>644</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>466</v>
+        <v>645</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="6">
@@ -5569,76 +5564,76 @@
       <c r="F51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="4"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="4"/>
       <c r="J52" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D53" s="4"/>
+      <c r="A53" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>633</v>
+        <v>434</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>634</v>
+        <v>435</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>635</v>
+        <v>436</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6">
@@ -5658,13 +5653,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>473</v>
+        <v>612</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>474</v>
+        <v>613</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>475</v>
+        <v>614</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6">
@@ -5684,13 +5679,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>336</v>
+        <v>452</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>338</v>
+        <v>453</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="6">
@@ -5710,13 +5705,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>621</v>
+        <v>315</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>623</v>
+        <v>316</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6">
@@ -5730,19 +5725,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>403</v>
+        <v>600</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>404</v>
+        <v>601</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>405</v>
+        <v>602</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="6">
@@ -5756,19 +5751,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>624</v>
+        <v>382</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>626</v>
+        <v>384</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6">
@@ -5788,13 +5783,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>354</v>
+        <v>603</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>356</v>
+        <v>604</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="6">
@@ -5814,13 +5809,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>482</v>
+        <v>333</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>484</v>
+        <v>334</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6">
@@ -5840,26 +5835,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4"/>
       <c r="J62" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5870,25 +5861,29 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="E63" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F63" s="6">
         <v>1000</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="J63" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -5896,13 +5891,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>645</v>
+        <v>324</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>646</v>
+        <v>325</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>647</v>
+        <v>326</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6">
@@ -5922,29 +5917,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>306</v>
+        <v>624</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>309</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F65" s="6">
         <v>1000</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="I65" s="4"/>
       <c r="J65" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -5952,102 +5943,102 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>533</v>
+        <v>285</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="E66" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6">
         <v>1000</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>536</v>
+      <c r="I66" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" ref="J66:J97" si="2">IF(E66=-1000,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D67" s="5"/>
+      <c r="A67" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="6">
         <v>-1000</v>
       </c>
       <c r="F67" s="6">
         <v>1000</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>659</v>
+      <c r="I67" s="13" t="s">
+        <v>515</v>
       </c>
       <c r="J67" s="7">
+        <f t="shared" ref="J67:J98" si="2">IF(E67=-1000,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6">
+        <v>-1000</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="J68" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="J68" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -6056,7 +6047,7 @@
         <v>1000</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="J69" s="7">
         <f t="shared" si="2"/>
@@ -6068,25 +6059,29 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>406</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="E70" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6">
         <v>1000</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="J70" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6094,26 +6089,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>391</v>
+        <v>471</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>393</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="6">
         <v>-1000</v>
       </c>
       <c r="F71" s="6">
         <v>1000</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6124,27 +6115,29 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>597</v>
+        <v>369</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>598</v>
+        <v>370</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D72" s="4"/>
+        <v>371</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F72" s="6">
         <v>1000</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>600</v>
+        <v>373</v>
       </c>
       <c r="J72" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6152,41 +6145,41 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>667</v>
+        <v>576</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>668</v>
+        <v>577</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>669</v>
+        <v>578</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F73" s="6">
         <v>1000</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>410</v>
+        <v>579</v>
       </c>
       <c r="J73" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>467</v>
+        <v>646</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>468</v>
+        <v>647</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>469</v>
+        <v>648</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="6">
@@ -6195,37 +6188,35 @@
       <c r="F74" s="6">
         <v>1000</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="J74" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>409</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="6">
         <v>-1000</v>
       </c>
       <c r="F75" s="6">
         <v>1000</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>410</v>
-      </c>
+      <c r="I75" s="4"/>
       <c r="J75" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6235,94 +6226,98 @@
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D76" s="6"/>
+      <c r="A76" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="E76" s="6">
         <v>-1000</v>
       </c>
       <c r="F76" s="6">
         <v>1000</v>
       </c>
-      <c r="I76" s="6"/>
+      <c r="I76" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="J76" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="D77" s="14"/>
+      <c r="A77" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F77" s="6">
         <v>1000</v>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>532</v>
-      </c>
+      <c r="I77" s="6"/>
       <c r="J77" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>509</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D78" s="14"/>
       <c r="E78" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="6">
         <v>1000</v>
       </c>
-      <c r="I78" s="4"/>
+      <c r="I78" s="13" t="s">
+        <v>511</v>
+      </c>
       <c r="J78" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="6">
@@ -6331,9 +6326,7 @@
       <c r="F79" s="6">
         <v>1000</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>360</v>
-      </c>
+      <c r="I79" s="4"/>
       <c r="J79" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6344,13 +6337,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="6">
@@ -6360,7 +6353,7 @@
         <v>1000</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="J80" s="7">
         <f t="shared" si="2"/>
@@ -6371,98 +6364,98 @@
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="D81" s="5"/>
+      <c r="A81" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F81" s="6">
         <v>1000</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>655</v>
+      <c r="I81" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="J81" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D82" s="4"/>
+      <c r="A82" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="6">
         <v>1000</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>663</v>
+      <c r="I82" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="6">
         <v>1000</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="J83" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6">
@@ -6471,7 +6464,9 @@
       <c r="F84" s="6">
         <v>1000</v>
       </c>
-      <c r="I84" s="4"/>
+      <c r="I84" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="J84" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6482,13 +6477,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="6">
@@ -6508,13 +6503,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="6">
@@ -6523,9 +6518,7 @@
       <c r="F86" s="6">
         <v>1000</v>
       </c>
-      <c r="I86" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6536,17 +6529,15 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>431</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="E87" s="6">
         <v>-1000</v>
       </c>
@@ -6554,7 +6545,7 @@
         <v>1000</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="2"/>
@@ -6566,22 +6557,26 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="E88" s="6">
         <v>-1000</v>
       </c>
       <c r="F88" s="6">
         <v>1000</v>
       </c>
-      <c r="I88" s="4"/>
+      <c r="I88" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="J88" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6591,25 +6586,23 @@
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D89" s="5"/>
+      <c r="A89" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="6">
         <v>-1000</v>
       </c>
       <c r="F89" s="6">
         <v>1000</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>528</v>
-      </c>
+      <c r="I89" s="4"/>
       <c r="J89" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6619,80 +6612,82 @@
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D90" s="4"/>
+      <c r="A90" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D90" s="5"/>
       <c r="E90" s="6">
         <v>-1000</v>
       </c>
       <c r="F90" s="6">
         <v>1000</v>
       </c>
-      <c r="I90" s="4"/>
+      <c r="I90" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="J90" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>582</v>
+        <v>502</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F91" s="6">
         <v>1000</v>
       </c>
-      <c r="I91" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="I91" s="4"/>
       <c r="J91" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
       <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>402</v>
+        <v>562</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F92" s="6">
         <v>1000</v>
       </c>
-      <c r="I92" s="4"/>
+      <c r="I92" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="J92" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6700,13 +6695,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="6">
@@ -6726,26 +6721,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>398</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="6">
         <v>-1000</v>
       </c>
       <c r="F94" s="6">
         <v>1000</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="I94" s="4"/>
       <c r="J94" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6756,15 +6747,17 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>585</v>
+        <v>374</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>586</v>
+        <v>375</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>376</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="E95" s="6">
         <v>-1000</v>
       </c>
@@ -6772,7 +6765,7 @@
         <v>1000</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>588</v>
+        <v>378</v>
       </c>
       <c r="J95" s="7">
         <f t="shared" si="2"/>
@@ -6784,17 +6777,15 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>406</v>
+        <v>564</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>407</v>
+        <v>565</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>409</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D96" s="4"/>
       <c r="E96" s="6">
         <v>-1000</v>
       </c>
@@ -6802,7 +6793,7 @@
         <v>1000</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>410</v>
+        <v>567</v>
       </c>
       <c r="J96" s="7">
         <f t="shared" si="2"/>
@@ -6814,29 +6805,29 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>313</v>
+        <v>386</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="E97" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F97" s="6">
         <v>1000</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="J97" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -6844,16 +6835,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
@@ -6862,30 +6853,28 @@
         <v>1000</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="J98" s="7">
-        <f t="shared" ref="J98:J112" si="3">IF(E98=-1000,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>502</v>
+        <v>300</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>504</v>
+        <v>301</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
@@ -6894,37 +6883,43 @@
         <v>1000</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>506</v>
+        <v>304</v>
       </c>
       <c r="J99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J99:J113" si="3">IF(E99=-1000,1,0)</f>
         <v>0</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="M99" s="4" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>483</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="E100" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F100" s="6">
         <v>1000</v>
       </c>
-      <c r="I100" s="4"/>
+      <c r="I100" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="J100" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -6932,26 +6927,22 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>435</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="6">
         <v>-1000</v>
       </c>
       <c r="F101" s="6">
         <v>1000</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="I101" s="4"/>
       <c r="J101" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6962,16 +6953,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E102" s="6">
         <v>-1000</v>
@@ -6980,7 +6971,7 @@
         <v>1000</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J102" s="7">
         <f t="shared" si="3"/>
@@ -6992,16 +6983,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E103" s="6">
         <v>-1000</v>
@@ -7010,7 +7001,7 @@
         <v>1000</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J103" s="7">
         <f t="shared" si="3"/>
@@ -7022,16 +7013,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E104" s="6">
         <v>-1000</v>
@@ -7040,7 +7031,7 @@
         <v>1000</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J104" s="7">
         <f t="shared" si="3"/>
@@ -7052,16 +7043,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E105" s="6">
         <v>-1000</v>
@@ -7070,7 +7061,7 @@
         <v>1000</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J105" s="7">
         <f t="shared" si="3"/>
@@ -7082,16 +7073,16 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E106" s="6">
         <v>-1000</v>
@@ -7100,7 +7091,7 @@
         <v>1000</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J106" s="7">
         <f t="shared" si="3"/>
@@ -7112,16 +7103,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E107" s="6">
         <v>-1000</v>
@@ -7130,7 +7121,7 @@
         <v>1000</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="J107" s="7">
         <f t="shared" si="3"/>
@@ -7142,29 +7133,29 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="E108" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F108" s="6">
         <v>1000</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="J108" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7172,29 +7163,29 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>316</v>
+        <v>476</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>318</v>
+        <v>477</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="E109" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F109" s="6">
         <v>1000</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="J109" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7202,15 +7193,17 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>593</v>
+        <v>295</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D110" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="E110" s="6">
         <v>-1000</v>
       </c>
@@ -7218,7 +7211,7 @@
         <v>1000</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>596</v>
+        <v>299</v>
       </c>
       <c r="J110" s="7">
         <f t="shared" si="3"/>
@@ -7230,27 +7223,27 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="6">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F111" s="6">
         <v>1000</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J111" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -7258,13 +7251,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="6">
@@ -7274,7 +7267,7 @@
         <v>1000</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="J112" s="7">
         <f t="shared" si="3"/>
@@ -7283,24 +7276,54 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="J113" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:N112">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I86" r:id="rId1" display="http://www.genome.jp/dbget-bin/www_bget?ec:3.2.1.21"/>
-    <hyperlink ref="I3" r:id="rId2" display="http://www.genome.jp/dbget-bin/www_bget?ec:3.2.1.21"/>
+    <hyperlink ref="I87" r:id="rId1" display="http://www.genome.jp/dbget-bin/www_bget?ec:3.2.1.21"/>
+    <hyperlink ref="I4" r:id="rId2" display="http://www.genome.jp/dbget-bin/www_bget?ec:3.2.1.21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J960"/>
+  <dimension ref="A1:J961"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7316,233 +7339,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B2" t="s">
         <v>236</v>
       </c>
-      <c r="C1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B2" t="s">
-        <v>713</v>
-      </c>
       <c r="C2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>380</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>684</v>
+      <c r="A3" t="s">
+        <v>664</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="C3" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="15"/>
+        <v>359</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>689</v>
+      <c r="A4" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="B4" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="B5" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C5" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="B6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C7" t="s">
-        <v>724</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="16"/>
+        <v>246</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>275</v>
+        <v>665</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>690</v>
+      <c r="A9" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="C9" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>691</v>
+      <c r="A10" t="s">
+        <v>669</v>
       </c>
       <c r="B10" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C10" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>692</v>
+      <c r="A11" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="B11" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="C11" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="B12" t="s">
-        <v>751</v>
+        <v>688</v>
       </c>
       <c r="C12" t="s">
-        <v>752</v>
+        <v>689</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>693</v>
+      <c r="A13" t="s">
+        <v>673</v>
       </c>
       <c r="B13" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="C13" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>695</v>
+      <c r="A14" s="4" t="s">
+        <v>672</v>
       </c>
       <c r="B14" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="B15" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" t="s">
-        <v>737</v>
-      </c>
-      <c r="C16" t="s">
-        <v>738</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>716</v>
@@ -7551,254 +7565,265 @@
         <v>717</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>488</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>423</v>
+      <c r="A18" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="B18" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="C18" t="s">
-        <v>719</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>513</v>
+        <v>696</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>425</v>
+        <v>458</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>699</v>
+      <c r="A19" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="C19" t="s">
-        <v>745</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>296</v>
+        <v>698</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>696</v>
+      <c r="A20" t="s">
+        <v>678</v>
       </c>
       <c r="B20" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="C20" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>721</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>701</v>
+      <c r="A22" s="4" t="s">
+        <v>677</v>
       </c>
       <c r="B22" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="C22" t="s">
-        <v>747</v>
+        <v>276</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>700</v>
+      <c r="A23" t="s">
+        <v>680</v>
       </c>
       <c r="B23" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="C23" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>309</v>
+        <v>679</v>
       </c>
       <c r="B24" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C24" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C25" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="C27" t="s">
-        <v>732</v>
+        <v>684</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>711</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>502</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="B30" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="C30" t="s">
-        <v>721</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="B31" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="C31" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>497</v>
+        <v>411</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
       <c r="C32" t="s">
+        <v>698</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" t="s">
+        <v>732</v>
+      </c>
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34"/>
+      <c r="D33" s="4" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35"/>
@@ -7820,10 +7845,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43"/>
@@ -7851,20 +7876,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -8037,50 +8062,50 @@
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="15"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="15"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="15"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" s="15"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" s="15"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="15"/>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I252" s="15"/>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I267" s="15"/>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I278" s="15"/>
-    </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I331" s="15"/>
-    </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I358" s="15"/>
-    </row>
-    <row r="513" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I513" s="15"/>
-    </row>
-    <row r="900" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I900" s="15"/>
-    </row>
-    <row r="923" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I923" s="15"/>
-    </row>
-    <row r="929" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I929"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="15"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="15"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="15"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166" s="15"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168" s="15"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="15"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I253" s="15"/>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I268" s="15"/>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="15"/>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I332" s="15"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="15"/>
+    </row>
+    <row r="514" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I514" s="15"/>
+    </row>
+    <row r="901" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I901" s="15"/>
+    </row>
+    <row r="924" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I924" s="15"/>
     </row>
     <row r="930" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I930"/>
@@ -8131,7 +8156,7 @@
       <c r="I945"/>
     </row>
     <row r="946" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J946" s="1"/>
+      <c r="I946"/>
     </row>
     <row r="947" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J947" s="1"/>
@@ -8174,13 +8199,16 @@
     </row>
     <row r="960" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J960" s="1"/>
+    </row>
+    <row r="961" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J961" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -8190,30 +8218,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="D1" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="F1" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="C2">
         <v>5.9</v>
@@ -8222,15 +8250,15 @@
         <v>0.6</v>
       </c>
       <c r="F2" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B3" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C3">
         <f>D3/E3/32*1000</f>
@@ -8243,15 +8271,15 @@
         <v>0.32</v>
       </c>
       <c r="F3" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C9" si="0">D4/E4/32*1000</f>
@@ -8264,15 +8292,15 @@
         <v>0.33</v>
       </c>
       <c r="F4" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -8285,15 +8313,15 @@
         <v>0.35</v>
       </c>
       <c r="F5" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B6" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8306,15 +8334,15 @@
         <v>0.37</v>
       </c>
       <c r="F6" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B7" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8327,15 +8355,15 @@
         <v>0.38</v>
       </c>
       <c r="F7" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B8" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8348,15 +8376,15 @@
         <v>0.38</v>
       </c>
       <c r="F8" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8369,15 +8397,15 @@
         <v>0.35</v>
       </c>
       <c r="F9" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="B10" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="C10">
         <f>D10/E10/92.1*1000</f>
@@ -8390,10 +8418,1445 @@
         <v>0.64</v>
       </c>
       <c r="F10" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3.593</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3.593</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="I5" s="20">
+        <v>8.173</v>
+      </c>
+      <c r="J5" s="20">
+        <v>7.9340000000000002</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="B6" s="20">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4.476</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4.476</v>
+      </c>
+      <c r="I6" s="20">
+        <v>8.4510000000000005</v>
+      </c>
+      <c r="J6" s="20">
+        <v>8.218</v>
+      </c>
+      <c r="K6" s="20">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1.675</v>
+      </c>
+      <c r="B7" s="20">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="C7" s="20">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.675</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.675</v>
+      </c>
+      <c r="H7" s="20">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="I7" s="20">
+        <v>8.7289999999999992</v>
+      </c>
+      <c r="J7" s="20">
+        <v>8.5020000000000007</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="B8" s="20">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="C8" s="20">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2.149</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="F8" s="20">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="G8" s="20">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="H8" s="20">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="I8" s="20">
+        <v>9.0060000000000002</v>
+      </c>
+      <c r="J8" s="20">
+        <v>8.7859999999999996</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2.1509999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>2.625</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2.625</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2.625</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2.625</v>
+      </c>
+      <c r="H9" s="20">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="I9" s="20">
+        <v>9.2840000000000007</v>
+      </c>
+      <c r="J9" s="20">
+        <v>9.07</v>
+      </c>
+      <c r="K9" s="20">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="B10" s="20">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>5.077</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5.077</v>
+      </c>
+      <c r="I10" s="20">
+        <v>9.5619999999999994</v>
+      </c>
+      <c r="J10" s="20">
+        <v>9.3539999999999992</v>
+      </c>
+      <c r="K10" s="20">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="B11" s="20">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="D11" s="20">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="F11" s="20">
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="G11" s="20">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="I11" s="20">
+        <v>9.84</v>
+      </c>
+      <c r="J11" s="20">
+        <v>9.6379999999999999</v>
+      </c>
+      <c r="K11" s="20">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="B12" s="20">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="C12" s="20">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="G12" s="20">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="I12" s="20">
+        <v>10.117000000000001</v>
+      </c>
+      <c r="J12" s="20">
+        <v>9.9220000000000006</v>
+      </c>
+      <c r="K12" s="20">
+        <v>4.0510000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="B13" s="20">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4.524</v>
+      </c>
+      <c r="E13" s="20">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="F13" s="20">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="G13" s="20">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="H13" s="20">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="I13" s="20">
+        <v>10.395</v>
+      </c>
+      <c r="J13" s="20">
+        <v>10.206</v>
+      </c>
+      <c r="K13" s="20">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20">
+        <v>5.12</v>
+      </c>
+      <c r="C14" s="20">
+        <v>5.12</v>
+      </c>
+      <c r="D14" s="20">
+        <v>5</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="G14" s="20">
+        <v>5</v>
+      </c>
+      <c r="H14" s="20">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="I14" s="20">
+        <v>10.673</v>
+      </c>
+      <c r="J14" s="20">
+        <v>10.49</v>
+      </c>
+      <c r="K14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="B19">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="D19">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E19">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="G19">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="I19">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J19">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="B20">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="C20">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="D20">
+        <v>4.532</v>
+      </c>
+      <c r="E20">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="I20">
+        <v>4.532</v>
+      </c>
+      <c r="J20">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="K20">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="B21">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="C21">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="D21">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="E21">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.734</v>
+      </c>
+      <c r="G21">
+        <v>1.675</v>
+      </c>
+      <c r="H21">
+        <v>1.675</v>
+      </c>
+      <c r="I21">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="J21">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="K21">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.633</v>
+      </c>
+      <c r="B22">
+        <v>2.633</v>
+      </c>
+      <c r="C22">
+        <v>2.633</v>
+      </c>
+      <c r="D22">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="E22">
+        <v>2.633</v>
+      </c>
+      <c r="F22">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="G22">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="H22">
+        <v>2.15</v>
+      </c>
+      <c r="I22">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="J22">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="K22">
+        <v>2.1509999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2.67</v>
+      </c>
+      <c r="B23">
+        <v>2.67</v>
+      </c>
+      <c r="C23">
+        <v>2.67</v>
+      </c>
+      <c r="D23">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="E23">
+        <v>2.67</v>
+      </c>
+      <c r="F23">
+        <v>2.68</v>
+      </c>
+      <c r="G23">
+        <v>2.625</v>
+      </c>
+      <c r="H23">
+        <v>2.625</v>
+      </c>
+      <c r="I23">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="J23">
+        <v>2.669</v>
+      </c>
+      <c r="K23">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="B24">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="C24">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="D24">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="E24">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="F24">
+        <v>3.153</v>
+      </c>
+      <c r="G24">
+        <v>3.1</v>
+      </c>
+      <c r="H24">
+        <v>3.101</v>
+      </c>
+      <c r="I24">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="J24">
+        <v>2.706</v>
+      </c>
+      <c r="K24">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="B25">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="C25">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="D25">
+        <v>5.3940000000000001</v>
+      </c>
+      <c r="E25">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="F25">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="G25">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="H25">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="I25">
+        <v>5.3940000000000001</v>
+      </c>
+      <c r="J25">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="K25">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="B26">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="C26">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="D26">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="E26">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="F26">
+        <v>4.0990000000000002</v>
+      </c>
+      <c r="G26">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="H26">
+        <v>4.05</v>
+      </c>
+      <c r="I26">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="J26">
+        <v>2.78</v>
+      </c>
+      <c r="K26">
+        <v>4.0510000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="B27">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="C27">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="D27">
+        <v>5.7389999999999999</v>
+      </c>
+      <c r="E27">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="F27">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="G27">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="H27">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="I27">
+        <v>5.7389999999999999</v>
+      </c>
+      <c r="J27">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="K27">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.855</v>
+      </c>
+      <c r="B28">
+        <v>2.855</v>
+      </c>
+      <c r="C28">
+        <v>2.855</v>
+      </c>
+      <c r="D28">
+        <v>5.9109999999999996</v>
+      </c>
+      <c r="E28">
+        <v>2.855</v>
+      </c>
+      <c r="F28">
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5.9109999999999996</v>
+      </c>
+      <c r="J28">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.6</v>
+      </c>
+      <c r="B34">
+        <v>5.351</v>
+      </c>
+      <c r="C34">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D34">
+        <v>3.6</v>
+      </c>
+      <c r="E34">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F34">
+        <v>12.093999999999999</v>
+      </c>
+      <c r="G34">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="H34">
+        <v>12.781000000000001</v>
+      </c>
+      <c r="I34">
+        <v>15.19</v>
+      </c>
+      <c r="J34">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="K34">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="L34">
+        <v>12.78</v>
+      </c>
+      <c r="M34">
+        <v>12.093</v>
+      </c>
+      <c r="N34">
+        <v>11.628</v>
+      </c>
+      <c r="O34">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="P34">
+        <v>8.1649999999999991</v>
+      </c>
+      <c r="Q34">
+        <v>8.65</v>
+      </c>
+      <c r="R34">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="B35">
+        <v>5.7</v>
+      </c>
+      <c r="C35">
+        <v>1.2</v>
+      </c>
+      <c r="D35">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.73</v>
+      </c>
+      <c r="F35">
+        <v>12.31</v>
+      </c>
+      <c r="G35">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="H35">
+        <v>12.978</v>
+      </c>
+      <c r="I35">
+        <v>15.321</v>
+      </c>
+      <c r="J35">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="K35">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="L35">
+        <v>12.977</v>
+      </c>
+      <c r="M35">
+        <v>12.308999999999999</v>
+      </c>
+      <c r="N35">
+        <v>11.856</v>
+      </c>
+      <c r="O35">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="P35">
+        <v>8.4359999999999999</v>
+      </c>
+      <c r="Q35">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="R35">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.95</v>
+      </c>
+      <c r="B36">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="C36">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="D36">
+        <v>3.95</v>
+      </c>
+      <c r="E36">
+        <v>1.57</v>
+      </c>
+      <c r="F36">
+        <v>12.526</v>
+      </c>
+      <c r="G36">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="H36">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="I36">
+        <v>15.452</v>
+      </c>
+      <c r="J36">
+        <v>4.4909999999999997</v>
+      </c>
+      <c r="K36">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="L36">
+        <v>13.173999999999999</v>
+      </c>
+      <c r="M36">
+        <v>12.525</v>
+      </c>
+      <c r="N36">
+        <v>12.085000000000001</v>
+      </c>
+      <c r="O36">
+        <v>5.9580000000000002</v>
+      </c>
+      <c r="P36">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="Q36">
+        <v>10.157</v>
+      </c>
+      <c r="R36">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4.125</v>
+      </c>
+      <c r="B37">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="C37">
+        <v>2.149</v>
+      </c>
+      <c r="D37">
+        <v>4.125</v>
+      </c>
+      <c r="E37">
+        <v>2.048</v>
+      </c>
+      <c r="F37">
+        <v>12.742000000000001</v>
+      </c>
+      <c r="G37">
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="H37">
+        <v>13.372</v>
+      </c>
+      <c r="I37">
+        <v>15.584</v>
+      </c>
+      <c r="J37">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="K37">
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="L37">
+        <v>13.371</v>
+      </c>
+      <c r="M37">
+        <v>12.741</v>
+      </c>
+      <c r="N37">
+        <v>12.313000000000001</v>
+      </c>
+      <c r="O37">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="P37">
+        <v>8.98</v>
+      </c>
+      <c r="Q37">
+        <v>10.91</v>
+      </c>
+      <c r="R37">
+        <v>2.1509999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="B38">
+        <v>6.7460000000000004</v>
+      </c>
+      <c r="C38">
+        <v>2.625</v>
+      </c>
+      <c r="D38">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="E38">
+        <v>2.38</v>
+      </c>
+      <c r="F38">
+        <v>12.958</v>
+      </c>
+      <c r="G38">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="H38">
+        <v>13.569000000000001</v>
+      </c>
+      <c r="I38">
+        <v>15.715</v>
+      </c>
+      <c r="J38">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="K38">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="L38">
+        <v>13.568</v>
+      </c>
+      <c r="M38">
+        <v>12.957000000000001</v>
+      </c>
+      <c r="N38">
+        <v>12.542</v>
+      </c>
+      <c r="O38">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="P38">
+        <v>9.2520000000000007</v>
+      </c>
+      <c r="Q38">
+        <v>11.664</v>
+      </c>
+      <c r="R38">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="B39">
+        <v>7.0949999999999998</v>
+      </c>
+      <c r="C39">
+        <v>3.1</v>
+      </c>
+      <c r="D39">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="E39">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="F39">
+        <v>13.173</v>
+      </c>
+      <c r="G39">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="H39">
+        <v>13.766</v>
+      </c>
+      <c r="I39">
+        <v>15.846</v>
+      </c>
+      <c r="J39">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="K39">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="L39">
+        <v>13.765000000000001</v>
+      </c>
+      <c r="M39">
+        <v>13.172000000000001</v>
+      </c>
+      <c r="N39">
+        <v>12.771000000000001</v>
+      </c>
+      <c r="O39">
+        <v>6.3079999999999998</v>
+      </c>
+      <c r="P39">
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="Q39">
+        <v>12.417</v>
+      </c>
+      <c r="R39">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4.649</v>
+      </c>
+      <c r="B40">
+        <v>7.444</v>
+      </c>
+      <c r="C40">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="D40">
+        <v>4.649</v>
+      </c>
+      <c r="E40">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="F40">
+        <v>13.388999999999999</v>
+      </c>
+      <c r="G40">
+        <v>5.2610000000000001</v>
+      </c>
+      <c r="H40">
+        <v>13.962999999999999</v>
+      </c>
+      <c r="I40">
+        <v>15.978</v>
+      </c>
+      <c r="J40">
+        <v>6.0650000000000004</v>
+      </c>
+      <c r="K40">
+        <v>5.2610000000000001</v>
+      </c>
+      <c r="L40">
+        <v>13.962</v>
+      </c>
+      <c r="M40">
+        <v>13.388</v>
+      </c>
+      <c r="N40">
+        <v>12.999000000000001</v>
+      </c>
+      <c r="O40">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="P40">
+        <v>9.7959999999999994</v>
+      </c>
+      <c r="Q40">
+        <v>13.170999999999999</v>
+      </c>
+      <c r="R40">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="B41">
+        <v>7.7919999999999998</v>
+      </c>
+      <c r="C41">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="D41">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="E41">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="F41">
+        <v>13.605</v>
+      </c>
+      <c r="G41">
+        <v>5.4160000000000004</v>
+      </c>
+      <c r="H41">
+        <v>14.16</v>
+      </c>
+      <c r="I41">
+        <v>16.109000000000002</v>
+      </c>
+      <c r="J41">
+        <v>6.4589999999999996</v>
+      </c>
+      <c r="K41">
+        <v>5.4160000000000004</v>
+      </c>
+      <c r="L41">
+        <v>14.159000000000001</v>
+      </c>
+      <c r="M41">
+        <v>13.603999999999999</v>
+      </c>
+      <c r="N41">
+        <v>13.228</v>
+      </c>
+      <c r="O41">
+        <v>6.5419999999999998</v>
+      </c>
+      <c r="P41">
+        <v>10.068</v>
+      </c>
+      <c r="Q41">
+        <v>13.923999999999999</v>
+      </c>
+      <c r="R41">
+        <v>4.0510000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="B42">
+        <v>8.141</v>
+      </c>
+      <c r="C42">
+        <v>4.524</v>
+      </c>
+      <c r="D42">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="E42">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="F42">
+        <v>13.821</v>
+      </c>
+      <c r="G42">
+        <v>5.57</v>
+      </c>
+      <c r="H42">
+        <v>14.358000000000001</v>
+      </c>
+      <c r="I42">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="J42">
+        <v>6.8529999999999998</v>
+      </c>
+      <c r="K42">
+        <v>5.57</v>
+      </c>
+      <c r="L42">
+        <v>14.356999999999999</v>
+      </c>
+      <c r="M42">
+        <v>13.82</v>
+      </c>
+      <c r="N42">
+        <v>13.456</v>
+      </c>
+      <c r="O42">
+        <v>6.6580000000000004</v>
+      </c>
+      <c r="P42">
+        <v>10.34</v>
+      </c>
+      <c r="Q42">
+        <v>14.678000000000001</v>
+      </c>
+      <c r="R42">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5.173</v>
+      </c>
+      <c r="B43">
+        <v>8.49</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5.173</v>
+      </c>
+      <c r="E43">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="F43">
+        <v>14.037000000000001</v>
+      </c>
+      <c r="G43">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="H43">
+        <v>14.555</v>
+      </c>
+      <c r="I43">
+        <v>16.370999999999999</v>
+      </c>
+      <c r="J43">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="K43">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="L43">
+        <v>14.554</v>
+      </c>
+      <c r="M43">
+        <v>14.036</v>
+      </c>
+      <c r="N43">
+        <v>13.685</v>
+      </c>
+      <c r="O43">
+        <v>6.7750000000000004</v>
+      </c>
+      <c r="P43">
+        <v>10.612</v>
+      </c>
+      <c r="Q43">
+        <v>15.430999999999999</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>